--- a/ResultadoEleicoesDistritos/FARO_ALJEZUR.xlsx
+++ b/ResultadoEleicoesDistritos/FARO_ALJEZUR.xlsx
@@ -597,49 +597,49 @@
         <v>1210</v>
       </c>
       <c r="H2" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="I2" t="n">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="J2" t="n">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="M2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N2" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R2" t="n">
         <v>5</v>
       </c>
       <c r="S2" t="n">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="T2" t="n">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="U2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="V2" t="n">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -651,10 +651,10 @@
         <v>0</v>
       </c>
       <c r="Z2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA2" t="n">
         <v>5</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
